--- a/data/trans_dic/P34B03_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34B03_R-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1175105479092898</v>
+        <v>0.1154116274872293</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1227030508731697</v>
+        <v>0.1258280225889429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1011114700575072</v>
+        <v>0.1010892417015585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03443756596528525</v>
+        <v>0.03447684274728748</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05514103003041409</v>
+        <v>0.05476391390388002</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05211003617410736</v>
+        <v>0.05127695364354435</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07998713690375932</v>
+        <v>0.07961265512916897</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09406019180958676</v>
+        <v>0.09459341477092824</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08088007654405108</v>
+        <v>0.08099199068702255</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1735227794965542</v>
+        <v>0.1730675222850185</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1812286266739161</v>
+        <v>0.1807145944586204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1614608025944937</v>
+        <v>0.1634091207803283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06737633603721595</v>
+        <v>0.06801373760113362</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09478087538368314</v>
+        <v>0.09320081851267693</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08655040840523696</v>
+        <v>0.08679833446862326</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1125819214625937</v>
+        <v>0.1130189631050309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1276073521923672</v>
+        <v>0.1286486697832537</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.117862111070699</v>
+        <v>0.1176583371117736</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.09608719174773347</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.08550317454121087</v>
+        <v>0.08550317454121088</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1024393733406382</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1175927741342673</v>
+        <v>0.11904258049036</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1463857615104238</v>
+        <v>0.1464454679239653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1732186026185047</v>
+        <v>0.1732498944850949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05111667127921862</v>
+        <v>0.05090364090552813</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07913690615020162</v>
+        <v>0.07802578948219158</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06972604900306313</v>
+        <v>0.06899728810944974</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0893412668379419</v>
+        <v>0.0885165346963392</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1176581081243086</v>
+        <v>0.1164593986576505</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1260496879529878</v>
+        <v>0.1269238599530252</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1632959101540956</v>
+        <v>0.1613635280855532</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1941657322660045</v>
+        <v>0.1944647467930695</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.230463867289335</v>
+        <v>0.2377196988873641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0856025179450649</v>
+        <v>0.08416167176263974</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1163250943505012</v>
+        <v>0.1160436930930107</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1047101886121566</v>
+        <v>0.1039640419268259</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1161753802047363</v>
+        <v>0.1162096252776461</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1477589484972957</v>
+        <v>0.1477787283201892</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1609826505975614</v>
+        <v>0.1618541304251687</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1531181370132279</v>
+        <v>0.1561889678381621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1325937868558546</v>
+        <v>0.1302176762207942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1211196286776222</v>
+        <v>0.1204244501238972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04904689591840178</v>
+        <v>0.04920474327524419</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07212105672537676</v>
+        <v>0.07235986948468964</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06540749949509235</v>
+        <v>0.06442540667926262</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1082882658930035</v>
+        <v>0.1069198705013277</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1085074339915204</v>
+        <v>0.1090795499858532</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09795328742735109</v>
+        <v>0.09865170061956255</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2141740921257913</v>
+        <v>0.2165696978476128</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1866430300510497</v>
+        <v>0.1864535584621669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1819635044580394</v>
+        <v>0.1851447925735544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08817901364422487</v>
+        <v>0.08990175843628601</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1136423746629376</v>
+        <v>0.1129217188161156</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1069913365677377</v>
+        <v>0.1061957075808304</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1440970083024815</v>
+        <v>0.1425940860212362</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1435438959484515</v>
+        <v>0.1461374228910356</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1348702679250702</v>
+        <v>0.1379566328597299</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1413778409974467</v>
+        <v>0.1413043276665611</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1645255594617995</v>
+        <v>0.164225700133861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1724967207376257</v>
+        <v>0.1727061584635135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05725090394316682</v>
+        <v>0.05784817147677031</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09154570123995202</v>
+        <v>0.09232509138799429</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0869102182876887</v>
+        <v>0.08835846070075461</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1030935561467888</v>
+        <v>0.1019662983269501</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1328745123392513</v>
+        <v>0.132416921573533</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1331377861638409</v>
+        <v>0.1328347712145977</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1920169823062331</v>
+        <v>0.1902103920939096</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2163059123562573</v>
+        <v>0.2177991068094144</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2284310574418059</v>
+        <v>0.231109531684873</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09035201838465015</v>
+        <v>0.09165906897035676</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1319099263523776</v>
+        <v>0.1327430803619928</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1191128120638929</v>
+        <v>0.1223006428051631</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1316421286197865</v>
+        <v>0.1305699815976364</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1638192171108169</v>
+        <v>0.1650618678943824</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1683604141137108</v>
+        <v>0.1639426160014348</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.168267849960355</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1750706749087821</v>
+        <v>0.175070674908782</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.06540870295799014</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.143122773907669</v>
+        <v>0.1436327736022013</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1551472280141789</v>
+        <v>0.1563117566470478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1612991789552232</v>
+        <v>0.1616677053338311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05705999791554181</v>
+        <v>0.0567060948095738</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08559315729238569</v>
+        <v>0.08576390864699422</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0780697787213632</v>
+        <v>0.07735610287546635</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.101777437363375</v>
+        <v>0.1015675748007532</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.122705287393686</v>
+        <v>0.1233567582145259</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1206861551329339</v>
+        <v>0.1212455046395174</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1679836413826834</v>
+        <v>0.1694163032554913</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1809930106485404</v>
+        <v>0.1817197789814982</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1919099324735331</v>
+        <v>0.1923002559465077</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07399932027727731</v>
+        <v>0.07354233200293919</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1047100396638446</v>
+        <v>0.1054689244298533</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09565932999839803</v>
+        <v>0.09519556666782157</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1172195284277668</v>
+        <v>0.1179604053339436</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1404715291850194</v>
+        <v>0.1391807542412773</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1380609249266547</v>
+        <v>0.1381302885383195</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>82527</v>
+        <v>81053</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>82800</v>
+        <v>84909</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>69729</v>
+        <v>69714</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24005</v>
+        <v>24032</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>37101</v>
+        <v>36847</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>38113</v>
+        <v>37504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>111930</v>
+        <v>111406</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>126759</v>
+        <v>127478</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>114932</v>
+        <v>115091</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>121865</v>
+        <v>121545</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>122293</v>
+        <v>121946</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111348</v>
+        <v>112692</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46965</v>
+        <v>47409</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>63772</v>
+        <v>62709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>63302</v>
+        <v>63484</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>157541</v>
+        <v>158153</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>171969</v>
+        <v>173372</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>167484</v>
+        <v>167195</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>119703</v>
+        <v>121179</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>149669</v>
+        <v>149730</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>181519</v>
+        <v>181552</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52665</v>
+        <v>52446</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>82533</v>
+        <v>81374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>74665</v>
+        <v>73885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>182992</v>
+        <v>181303</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>243004</v>
+        <v>240529</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>267068</v>
+        <v>268921</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>166227</v>
+        <v>164260</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>198521</v>
+        <v>198827</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>241507</v>
+        <v>249111</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>88195</v>
+        <v>86711</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>121317</v>
+        <v>121023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>112128</v>
+        <v>111329</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>237955</v>
+        <v>238025</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>305173</v>
+        <v>305214</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>341083</v>
+        <v>342929</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>116006</v>
+        <v>118332</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>100712</v>
+        <v>98907</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>97268</v>
+        <v>96710</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38118</v>
+        <v>38241</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>56616</v>
+        <v>56803</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>53128</v>
+        <v>52330</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>166201</v>
+        <v>164100</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>167597</v>
+        <v>168480</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>158227</v>
+        <v>159355</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>162263</v>
+        <v>164078</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>141765</v>
+        <v>141621</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>146130</v>
+        <v>148685</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68530</v>
+        <v>69869</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>89211</v>
+        <v>88645</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>86905</v>
+        <v>86258</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>221160</v>
+        <v>218853</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>221713</v>
+        <v>225718</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>217860</v>
+        <v>222846</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>133862</v>
+        <v>133793</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>154254</v>
+        <v>153973</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>170590</v>
+        <v>170797</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60222</v>
+        <v>60851</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>95553</v>
+        <v>96367</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>97017</v>
+        <v>98634</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>206058</v>
+        <v>203804</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>263270</v>
+        <v>262364</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>280286</v>
+        <v>279648</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>181810</v>
+        <v>180099</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>202801</v>
+        <v>204201</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>225906</v>
+        <v>228554</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>95041</v>
+        <v>96416</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>137685</v>
+        <v>138554</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>132964</v>
+        <v>136523</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>263119</v>
+        <v>260976</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>324583</v>
+        <v>327045</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>354438</v>
+        <v>345138</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>490154</v>
+        <v>491901</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>526624</v>
+        <v>530577</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>569315</v>
+        <v>570616</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>202929</v>
+        <v>201670</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>303389</v>
+        <v>303994</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>291261</v>
+        <v>288599</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>710521</v>
+        <v>709056</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>851439</v>
+        <v>855959</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>876223</v>
+        <v>880284</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>575295</v>
+        <v>580202</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>614354</v>
+        <v>616821</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>677358</v>
+        <v>678736</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>263172</v>
+        <v>261547</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>371149</v>
+        <v>373839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>356884</v>
+        <v>355154</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>818324</v>
+        <v>823496</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>974717</v>
+        <v>965760</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1002369</v>
+        <v>1002873</v>
       </c>
     </row>
     <row r="24">
